--- a/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10019</v>
+        <v>8439</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00305134868122348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001005170087614287</v>
+        <v>0.001003526562001566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009710477165295512</v>
+        <v>0.008179296410016541</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>15404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8844</v>
+        <v>9371</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24428</v>
+        <v>25641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01171291448854708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006725256454348977</v>
+        <v>0.007125630024496963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01857461189727479</v>
+        <v>0.01949695195668119</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>18552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11156</v>
+        <v>11259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28819</v>
+        <v>29508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007905090983249314</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004753722394108754</v>
+        <v>0.00479748097393945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01228002962008876</v>
+        <v>0.01257346942807745</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2485</v>
+        <v>2009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11086</v>
+        <v>11973</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005434294668922821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002409020826962204</v>
+        <v>0.001946999794863096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01074518734206688</v>
+        <v>0.01160528842409043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -836,19 +836,19 @@
         <v>13036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7027</v>
+        <v>7292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21597</v>
+        <v>22154</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009912337926626736</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005343169012669445</v>
+        <v>0.00554477588900143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01642202941586254</v>
+        <v>0.01684554937789068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -857,19 +857,19 @@
         <v>18643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11695</v>
+        <v>12160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29322</v>
+        <v>29566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007943687136026318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004983308377109748</v>
+        <v>0.005181610055150034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01249445757137374</v>
+        <v>0.01259806988238081</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>22693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14961</v>
+        <v>14976</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33385</v>
+        <v>33591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0219949818722143</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01450105541242453</v>
+        <v>0.01451516933312884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03235870021826404</v>
+        <v>0.03255781310234679</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -907,19 +907,19 @@
         <v>48201</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35638</v>
+        <v>36104</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61798</v>
+        <v>63540</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03665147834877737</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02709848420120435</v>
+        <v>0.02745332826710598</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04699054301490469</v>
+        <v>0.04831512007632452</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -928,19 +928,19 @@
         <v>70894</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56151</v>
+        <v>55718</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87699</v>
+        <v>88049</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03020814546529545</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02392607100685337</v>
+        <v>0.02374192250829986</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03736916372572318</v>
+        <v>0.03751832217470179</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>56594</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44361</v>
+        <v>44079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72622</v>
+        <v>71441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05485413772985751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04299738604442644</v>
+        <v>0.042723428279957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07038893465420382</v>
+        <v>0.06924433739870077</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -978,19 +978,19 @@
         <v>81820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65700</v>
+        <v>64960</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99472</v>
+        <v>99488</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06221555419611167</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04995754319702977</v>
+        <v>0.04939494866301319</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07563738454850207</v>
+        <v>0.07564971926141231</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -999,19 +999,19 @@
         <v>138415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117170</v>
+        <v>117693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161110</v>
+        <v>162983</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0589793062386364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04992678463313204</v>
+        <v>0.05014972024345658</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06864981136794841</v>
+        <v>0.06944784098892642</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>943681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>925499</v>
+        <v>925113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>959657</v>
+        <v>959462</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9146652370477819</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8970424547420527</v>
+        <v>0.8966684187443817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301497116954662</v>
+        <v>0.9299610422513666</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1134</v>
@@ -1049,19 +1049,19 @@
         <v>1156652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1132987</v>
+        <v>1132142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1179106</v>
+        <v>1181363</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8795077150399372</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8615127089659556</v>
+        <v>0.8608704208545576</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8965813762434295</v>
+        <v>0.8982976363463495</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2079</v>
@@ -1070,19 +1070,19 @@
         <v>2100332</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2071335</v>
+        <v>2070043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2128095</v>
+        <v>2129345</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8949637701767925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8826080149887943</v>
+        <v>0.882057144311962</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9067936918037427</v>
+        <v>0.9073261646368572</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>13130</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7218</v>
+        <v>7449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22090</v>
+        <v>22311</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007753828106533632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004262433101828829</v>
+        <v>0.004398937863079754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01304440011655903</v>
+        <v>0.01317492077083994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1195,19 +1195,19 @@
         <v>19311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11428</v>
+        <v>11212</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29675</v>
+        <v>29181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01217137795770039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007202506814567187</v>
+        <v>0.007066329190721928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01870305390983788</v>
+        <v>0.01839217215708188</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1216,19 +1216,19 @@
         <v>32442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22800</v>
+        <v>22106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45241</v>
+        <v>45182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009890684108125779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006951288468977895</v>
+        <v>0.006739639201264662</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01379276516097852</v>
+        <v>0.01377503663898944</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>12114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6492</v>
+        <v>6373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21157</v>
+        <v>21690</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007153436536606028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003833616414089401</v>
+        <v>0.003763316842431533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01249366475128588</v>
+        <v>0.0128082465423647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1266,19 +1266,19 @@
         <v>27836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17683</v>
+        <v>18365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40450</v>
+        <v>39009</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01754433668449925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0111453867376613</v>
+        <v>0.01157495885945961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02549429118951333</v>
+        <v>0.02458643883356525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -1287,19 +1287,19 @@
         <v>39950</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28155</v>
+        <v>27924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53949</v>
+        <v>53989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0121797199043208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008583795413095612</v>
+        <v>0.008513352665712286</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01644784710387479</v>
+        <v>0.01645994166184519</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>43044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31125</v>
+        <v>31141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59276</v>
+        <v>59492</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02541822304685363</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01838012228320899</v>
+        <v>0.01838967283917427</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03500389726956816</v>
+        <v>0.03513114072037422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -1337,19 +1337,19 @@
         <v>59582</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45930</v>
+        <v>46726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75364</v>
+        <v>77970</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03755297402345825</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02894863464554834</v>
+        <v>0.02945024356100925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0474998061447999</v>
+        <v>0.04914212294903963</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>98</v>
@@ -1358,19 +1358,19 @@
         <v>102626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81036</v>
+        <v>83906</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123188</v>
+        <v>123362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03128804145882584</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02470575147244883</v>
+        <v>0.02558083962882199</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03755696239672657</v>
+        <v>0.03761009660992384</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>96231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79328</v>
+        <v>79535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116219</v>
+        <v>118240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05682646982022672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04684497316334183</v>
+        <v>0.04696746964188186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0686297491878376</v>
+        <v>0.06982358320575743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1408,19 +1408,19 @@
         <v>110266</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90997</v>
+        <v>92106</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130792</v>
+        <v>132925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06949801696938017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05735315275791707</v>
+        <v>0.05805196875645734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08243491259416477</v>
+        <v>0.08377882081394919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -1429,19 +1429,19 @@
         <v>206497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>179002</v>
+        <v>176804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>235629</v>
+        <v>234117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0629559471294584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05457346491697465</v>
+        <v>0.05390326335623815</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07183741029415348</v>
+        <v>0.07137652687116666</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>1528895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1501566</v>
+        <v>1504017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1550734</v>
+        <v>1553878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.90284804248978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8867096616440486</v>
+        <v>0.888157306725703</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9157445322531063</v>
+        <v>0.9176015328067428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1341</v>
@@ -1479,19 +1479,19 @@
         <v>1369617</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1341776</v>
+        <v>1339915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1397684</v>
+        <v>1396445</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.863233294364962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8456859257870051</v>
+        <v>0.8445126741302569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8809230273529628</v>
+        <v>0.8801418687114111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2830</v>
@@ -1500,19 +1500,19 @@
         <v>2898512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2858072</v>
+        <v>2859332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2933552</v>
+        <v>2935217</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8836856073992692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8713565876853753</v>
+        <v>0.8717407695873127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8943686421288116</v>
+        <v>0.8948761293718671</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>5778</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14395</v>
+        <v>13916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01047817349271968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002716005352218206</v>
+        <v>0.002709626353348472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02610669269139914</v>
+        <v>0.02523715923005839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>4063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10034</v>
+        <v>10295</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008527625019835413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002096206320275924</v>
+        <v>0.002109490264420626</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02106219983168051</v>
+        <v>0.0216084341392114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1646,19 +1646,19 @@
         <v>9840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4386</v>
+        <v>3963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19176</v>
+        <v>18291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009574061511030818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004266949962380571</v>
+        <v>0.003855487189518584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01865670707493195</v>
+        <v>0.01779578877292997</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>3761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9127</v>
+        <v>9441</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006819930133707922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001833760944321825</v>
+        <v>0.001828655605817147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01655190490385011</v>
+        <v>0.01712175733375269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6971</v>
+        <v>6265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004213412909365783</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01463229222652732</v>
+        <v>0.01315063365649267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1717,19 +1717,19 @@
         <v>5768</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1994</v>
+        <v>2460</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12498</v>
+        <v>12015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00561176561702639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00194039644070451</v>
+        <v>0.002393412032519439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01215998275102649</v>
+        <v>0.01168977902850904</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>15664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8970</v>
+        <v>9109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26153</v>
+        <v>26106</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02840768050769881</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01626695352617398</v>
+        <v>0.01651879895372386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04742899456149373</v>
+        <v>0.04734437257647024</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1767,19 +1767,19 @@
         <v>20112</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12345</v>
+        <v>12774</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30952</v>
+        <v>30386</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04221640296277438</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02591223404410363</v>
+        <v>0.02681266213349533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06496847640953671</v>
+        <v>0.06378058085448321</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -1788,19 +1788,19 @@
         <v>35777</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24331</v>
+        <v>24075</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49412</v>
+        <v>49267</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03480825531883842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02367260865631475</v>
+        <v>0.02342305133169255</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04807442498867075</v>
+        <v>0.04793311072452291</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>41687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31090</v>
+        <v>29642</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55355</v>
+        <v>55080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07560126847750508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0563837046699083</v>
+        <v>0.05375669640881732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1003883934481955</v>
+        <v>0.09988948416878739</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1838,19 +1838,19 @@
         <v>39907</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28165</v>
+        <v>29551</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53386</v>
+        <v>55151</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08376528850568682</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05911895853908931</v>
+        <v>0.06202849308339751</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.112057666222404</v>
+        <v>0.1157640246770229</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -1859,19 +1859,19 @@
         <v>81594</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64201</v>
+        <v>65040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100244</v>
+        <v>99757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07938542889640121</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06246305824772512</v>
+        <v>0.06327982130595899</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09753056812352476</v>
+        <v>0.09705680285506171</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>484518</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>469047</v>
+        <v>468494</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>498407</v>
+        <v>500472</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8786929473883686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.850634871907111</v>
+        <v>0.8496322827325477</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.903880450001282</v>
+        <v>0.9076257821993685</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>388</v>
@@ -1909,19 +1909,19 @@
         <v>410323</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>393438</v>
+        <v>393453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425108</v>
+        <v>424283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8612772706023376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8258348864852374</v>
+        <v>0.8258671564329759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8923121363991993</v>
+        <v>0.8905793583247165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>851</v>
@@ -1930,19 +1930,19 @@
         <v>894841</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>870232</v>
+        <v>874499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>915135</v>
+        <v>917038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8706204886567032</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8466771778588076</v>
+        <v>0.8508291873518623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8903650441941428</v>
+        <v>0.892216258654894</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>22056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14179</v>
+        <v>13312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33675</v>
+        <v>35442</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006731583189007505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00432755252496398</v>
+        <v>0.004062894312735323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01027757450633213</v>
+        <v>0.01081685101087938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2055,19 +2055,19 @@
         <v>38778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28102</v>
+        <v>28054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54861</v>
+        <v>53639</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01147902678888688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008318921171835717</v>
+        <v>0.008304624848766536</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01624007894923916</v>
+        <v>0.01587816623351939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -2076,19 +2076,19 @@
         <v>60834</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46237</v>
+        <v>47171</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77454</v>
+        <v>78595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009141543545744105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00694798046703777</v>
+        <v>0.007088405591465758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01163897411208987</v>
+        <v>0.01181041929276457</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>21481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13965</v>
+        <v>14161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32241</v>
+        <v>32470</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006555984954622256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004262116440539187</v>
+        <v>0.004322063811726708</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009839849009660256</v>
+        <v>0.009909746568257303</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -2126,19 +2126,19 @@
         <v>42879</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>31285</v>
+        <v>30557</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58412</v>
+        <v>57640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01269315890202711</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.009261089261721794</v>
+        <v>0.009045528478585295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01729132222522016</v>
+        <v>0.01706258423763075</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>64</v>
@@ -2147,19 +2147,19 @@
         <v>64360</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>50368</v>
+        <v>50777</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>81733</v>
+        <v>83048</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009671418683212136</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007568755563139114</v>
+        <v>0.00763030332974467</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01228197823578539</v>
+        <v>0.01247962933910723</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>81400</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65932</v>
+        <v>63961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101938</v>
+        <v>102639</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02484340215721591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0201223424700691</v>
+        <v>0.01952092668312353</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03111153484185902</v>
+        <v>0.03132527318447244</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>128</v>
@@ -2197,19 +2197,19 @@
         <v>127895</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108647</v>
+        <v>106769</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>151482</v>
+        <v>151090</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03785969435850751</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03216187447948263</v>
+        <v>0.03160583671579299</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04484197387995208</v>
+        <v>0.04472593375378398</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -2218,19 +2218,19 @@
         <v>209296</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>181484</v>
+        <v>183856</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>239491</v>
+        <v>241516</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03145090523479003</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02727166814462768</v>
+        <v>0.02762800486505503</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03598837954950658</v>
+        <v>0.03629261884549937</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>194512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>168549</v>
+        <v>170646</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>224573</v>
+        <v>221537</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05936502093845754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05144119172616483</v>
+        <v>0.05208110917364243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06853963357063646</v>
+        <v>0.0676129838705011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>226</v>
@@ -2268,19 +2268,19 @@
         <v>231994</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>203883</v>
+        <v>203587</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>261634</v>
+        <v>263686</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06867502951836289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0603535635696025</v>
+        <v>0.06026599060672862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07744922776404663</v>
+        <v>0.07805668097774889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>424</v>
@@ -2289,19 +2289,19 @@
         <v>426506</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>391069</v>
+        <v>392086</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>472871</v>
+        <v>468287</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06409109111210207</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05876606820386175</v>
+        <v>0.0589188807863265</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07105844217035673</v>
+        <v>0.07036949771561099</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>2957093</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2922036</v>
+        <v>2922536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2988990</v>
+        <v>2986932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9025040087606968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8918046571835559</v>
+        <v>0.8919570623675888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9122388120299812</v>
+        <v>0.9116107308333913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2863</v>
@@ -2339,19 +2339,19 @@
         <v>2936591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2897665</v>
+        <v>2898036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2974721</v>
+        <v>2977787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8692930904322156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8577700766445951</v>
+        <v>0.8578799904410302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8805802223858988</v>
+        <v>0.8814879277894522</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5760</v>
@@ -2360,19 +2360,19 @@
         <v>5893685</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5838984</v>
+        <v>5838598</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5939775</v>
+        <v>5943419</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8856450414241517</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8774251162959327</v>
+        <v>0.8773671378396121</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8925710149194578</v>
+        <v>0.8931185299934479</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>2904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8724</v>
+        <v>7880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00298331399658638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0009518817492928298</v>
+        <v>0.0009498118952418093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008961390741169273</v>
+        <v>0.008095230066982803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2724,19 +2724,19 @@
         <v>11352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5169</v>
+        <v>6174</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19137</v>
+        <v>19689</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008485459646005397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003863486022527379</v>
+        <v>0.004615125164082769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01430501348986296</v>
+        <v>0.0147177402708348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2745,19 +2745,19 @@
         <v>14256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8069</v>
+        <v>8035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23913</v>
+        <v>24249</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006168034614205394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003491210656365833</v>
+        <v>0.003476527693936503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01034621740281017</v>
+        <v>0.01049175106012733</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>7025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2995</v>
+        <v>3027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13358</v>
+        <v>14235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007216561952366614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003076853883258417</v>
+        <v>0.003109590538713701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0137219463753672</v>
+        <v>0.01462237698763014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -2795,19 +2795,19 @@
         <v>15207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8030</v>
+        <v>8037</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25632</v>
+        <v>25696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01136746449660824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006002477434204247</v>
+        <v>0.006007509976040402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01915975189170132</v>
+        <v>0.01920737547560454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -2816,19 +2816,19 @@
         <v>22232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14188</v>
+        <v>13897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34082</v>
+        <v>33959</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009619163729324193</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006138492712209754</v>
+        <v>0.006012851425615028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01474616530308447</v>
+        <v>0.01469262277838954</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>22170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14107</v>
+        <v>14103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33363</v>
+        <v>33874</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02277401358855321</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01449156898794035</v>
+        <v>0.01448677808371756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03427241622655874</v>
+        <v>0.0347966491631391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -2866,19 +2866,19 @@
         <v>36549</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24503</v>
+        <v>26113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49096</v>
+        <v>51438</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02732002096659148</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01831617788749507</v>
+        <v>0.01951970350618973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.036699411474538</v>
+        <v>0.03844947277314808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -2887,19 +2887,19 @@
         <v>58719</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44281</v>
+        <v>43734</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77138</v>
+        <v>76616</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0254053076958285</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01915891350924716</v>
+        <v>0.01892224709524701</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0333745280255584</v>
+        <v>0.03314885705685577</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>28384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19379</v>
+        <v>19137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42114</v>
+        <v>42162</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02915767563292279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01990677325257946</v>
+        <v>0.01965825011174038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04326172790204915</v>
+        <v>0.04331060099155729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -2937,19 +2937,19 @@
         <v>69307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53018</v>
+        <v>54106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86695</v>
+        <v>89199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05180706735595264</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03963105732741936</v>
+        <v>0.0404444036901131</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06480405453816671</v>
+        <v>0.06667598779059784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -2958,19 +2958,19 @@
         <v>97692</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78460</v>
+        <v>77938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119544</v>
+        <v>118323</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04226746759280651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0339467634564336</v>
+        <v>0.03372079240033787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05172232481984126</v>
+        <v>0.05119393793134096</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>912991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895087</v>
+        <v>896601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>926084</v>
+        <v>927302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9378684348295711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9194767454723916</v>
+        <v>0.9210327014541259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9513188828566691</v>
+        <v>0.9525699331170105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1126</v>
@@ -3008,19 +3008,19 @@
         <v>1205382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1182341</v>
+        <v>1181580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1227784</v>
+        <v>1223763</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9010199875348422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8837972871278854</v>
+        <v>0.883227991965403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9177654635766906</v>
+        <v>0.9147595853944672</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1977</v>
@@ -3029,19 +3029,19 @@
         <v>2118372</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2089397</v>
+        <v>2090603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2145754</v>
+        <v>2146060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9165400263678354</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9040032643932349</v>
+        <v>0.9045250733717622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9283868762977308</v>
+        <v>0.928519374760156</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>13216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7081</v>
+        <v>7449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22895</v>
+        <v>24239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006729345967793208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003605254160147719</v>
+        <v>0.003792773811648597</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01165734247768099</v>
+        <v>0.0123419097148084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3154,19 +3154,19 @@
         <v>17298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10165</v>
+        <v>9944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26948</v>
+        <v>27230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009845996440819465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005786060468209018</v>
+        <v>0.005660238151275667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01533927458546074</v>
+        <v>0.01549979900064057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -3175,19 +3175,19 @@
         <v>30514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19912</v>
+        <v>20318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43718</v>
+        <v>43272</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00820091437994187</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005351599238945983</v>
+        <v>0.005460724497539243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01174985675278381</v>
+        <v>0.0116298150803225</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>3289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9481</v>
+        <v>10412</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.001674518733412618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.000455577256510224</v>
+        <v>0.0004573291182454543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.004827376565069233</v>
+        <v>0.00530176113402523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3225,19 +3225,19 @@
         <v>10833</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5135</v>
+        <v>5071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20147</v>
+        <v>19561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006166485552026555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002922817499497978</v>
+        <v>0.002886633660341452</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01146775146176717</v>
+        <v>0.01113428228266997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -3246,19 +3246,19 @@
         <v>14122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8283</v>
+        <v>7928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23109</v>
+        <v>24271</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003795461243938565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002226052911174178</v>
+        <v>0.002130701831627272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.006210870843441563</v>
+        <v>0.006523084031849764</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>33738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23279</v>
+        <v>23466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47412</v>
+        <v>47827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01717880575451803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01185333331726507</v>
+        <v>0.01194854361540265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02414131181026554</v>
+        <v>0.02435260862856315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -3296,19 +3296,19 @@
         <v>64630</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48846</v>
+        <v>50338</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82332</v>
+        <v>82147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03678825880310016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02780393619288585</v>
+        <v>0.02865311030295441</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04686426097921231</v>
+        <v>0.04675942138610501</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>92</v>
@@ -3317,19 +3317,19 @@
         <v>98368</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>79632</v>
+        <v>80064</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>120418</v>
+        <v>120508</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02643767258464609</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02140211388332876</v>
+        <v>0.02151807632411651</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03236365167280695</v>
+        <v>0.03238793505346961</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>71700</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55650</v>
+        <v>55958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89824</v>
+        <v>90346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03650807855015552</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02833567980511932</v>
+        <v>0.02849250386252221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04573604105063004</v>
+        <v>0.04600222216474212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -3367,19 +3367,19 @@
         <v>84317</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66623</v>
+        <v>67563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>103652</v>
+        <v>105745</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04799439564296366</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03792286062341597</v>
+        <v>0.03845756836633585</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05900012545938735</v>
+        <v>0.06019146481096949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -3388,19 +3388,19 @@
         <v>156017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134085</v>
+        <v>132482</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185996</v>
+        <v>182235</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0419314975546251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03603684281300679</v>
+        <v>0.0356059579830033</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04998855920549856</v>
+        <v>0.048977797581167</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>1842013</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1817717</v>
+        <v>1818507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1861371</v>
+        <v>1860940</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9379092509941206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9255380835795345</v>
+        <v>0.9259403650156695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9477657131342461</v>
+        <v>0.9475461037072794</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1469</v>
@@ -3438,19 +3438,19 @@
         <v>1579733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1553098</v>
+        <v>1554834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1603829</v>
+        <v>1604902</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8992048635610902</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8840438441200343</v>
+        <v>0.8850317545425291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9129205784451027</v>
+        <v>0.9135315048676383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3210</v>
@@ -3459,19 +3459,19 @@
         <v>3421746</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3386502</v>
+        <v>3386352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3456793</v>
+        <v>3455911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9196344542368484</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9101621428806584</v>
+        <v>0.9101218492928282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9290536327425984</v>
+        <v>0.9288165995727145</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>4794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13482</v>
+        <v>14511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009984070924517422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001885370945625633</v>
+        <v>0.001912445261590709</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02807809230155409</v>
+        <v>0.03022165059857577</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3584,19 +3584,19 @@
         <v>3963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>988</v>
+        <v>1024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9150</v>
+        <v>10390</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00864084091234291</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002153966501775799</v>
+        <v>0.002233175680479001</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01995118264056341</v>
+        <v>0.02265357019308167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3605,19 +3605,19 @@
         <v>8757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20146</v>
+        <v>18551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00932785210835608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0041141344743911</v>
+        <v>0.004110402434958577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02145933676263242</v>
+        <v>0.01976108252062321</v>
       </c>
     </row>
     <row r="17">
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11798</v>
+        <v>9924</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004219878454698769</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02457161462133422</v>
+        <v>0.0206681546298377</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3655,19 +3655,19 @@
         <v>7461</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3168</v>
+        <v>3052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14899</v>
+        <v>14816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01626777918158913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006906950841430392</v>
+        <v>0.006655610720483959</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03248661806913015</v>
+        <v>0.03230392000481404</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -3676,19 +3676,19 @@
         <v>9487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4420</v>
+        <v>4391</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20097</v>
+        <v>18910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01010573499495765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004707927556065556</v>
+        <v>0.004677328407265094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0214074461533933</v>
+        <v>0.02014345729915108</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>10629</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5839</v>
+        <v>5501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17702</v>
+        <v>18378</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02213726302085271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01216111881264667</v>
+        <v>0.0114566998791977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03686767577903219</v>
+        <v>0.03827587633399122</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -3726,19 +3726,19 @@
         <v>19150</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11042</v>
+        <v>11364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31098</v>
+        <v>30398</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04175571860173746</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02407633640389543</v>
+        <v>0.02477912768130486</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06780710435621834</v>
+        <v>0.06627927495745269</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -3747,19 +3747,19 @@
         <v>29780</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20617</v>
+        <v>19732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43644</v>
+        <v>44075</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03172162279506648</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02196187862500238</v>
+        <v>0.02101896943157858</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04648947207215599</v>
+        <v>0.0469493154821999</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>28967</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19617</v>
+        <v>18993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43617</v>
+        <v>44195</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06032834525614737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04085636220984219</v>
+        <v>0.03955559818301267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09084052653741159</v>
+        <v>0.09204450846603295</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -3800,16 +3800,16 @@
         <v>23677</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47111</v>
+        <v>48404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07376848891872262</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0516243075173036</v>
+        <v>0.0516251178777602</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1027202354306168</v>
+        <v>0.1055409876485802</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -3818,19 +3818,19 @@
         <v>62799</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46694</v>
+        <v>46900</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80742</v>
+        <v>80689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06689436528499976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04973938435366752</v>
+        <v>0.04995812341274731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08600690452562021</v>
+        <v>0.08595081793488957</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>433736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>416663</v>
+        <v>415684</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>446461</v>
+        <v>445584</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9033304423437838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8677741245513563</v>
+        <v>0.865735043912096</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.929833187833504</v>
+        <v>0.9280063376417407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>354</v>
@@ -3868,19 +3868,19 @@
         <v>394224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>376883</v>
+        <v>377012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408474</v>
+        <v>408757</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8595671723856079</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8217556393845222</v>
+        <v>0.8220373993339803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8906379584796602</v>
+        <v>0.8912549921984335</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>752</v>
@@ -3889,19 +3889,19 @@
         <v>827960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>804240</v>
+        <v>804899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>849550</v>
+        <v>848913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.88195042481662</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8566841310150375</v>
+        <v>0.8573853552793769</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9049487454961878</v>
+        <v>0.9042698394584269</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>20914</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11795</v>
+        <v>12375</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32105</v>
+        <v>33888</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0061195867414917</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003451248899375238</v>
+        <v>0.003621003252108981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009394114204186307</v>
+        <v>0.009915659357694132</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -4014,19 +4014,19 @@
         <v>32612</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23296</v>
+        <v>22378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46541</v>
+        <v>45556</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009178199060467403</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006556210490581862</v>
+        <v>0.006297976768418519</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01309815722490471</v>
+        <v>0.01282088888588543</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -4035,19 +4035,19 @@
         <v>53527</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40077</v>
+        <v>38977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71188</v>
+        <v>70688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007678653783055088</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005749229870578099</v>
+        <v>0.005591400073249201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01021224104414419</v>
+        <v>0.01014058131349084</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>12340</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6121</v>
+        <v>6289</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21652</v>
+        <v>22345</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003610739222761557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00179090152325445</v>
+        <v>0.00184017234543263</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.006335418267032622</v>
+        <v>0.006538309056383314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -4085,19 +4085,19 @@
         <v>33502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>22973</v>
+        <v>22388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47503</v>
+        <v>47122</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009428473077552466</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006465317120964838</v>
+        <v>0.006300630005491015</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0133689132255088</v>
+        <v>0.01326177407009443</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>41</v>
@@ -4106,19 +4106,19 @@
         <v>45842</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>31981</v>
+        <v>33657</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>61805</v>
+        <v>61692</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006576213811783535</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00458786131411492</v>
+        <v>0.00482829623326286</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008866238274853283</v>
+        <v>0.008850051754028841</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>66538</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53435</v>
+        <v>50981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84716</v>
+        <v>85270</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01946919687410328</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01563545298346766</v>
+        <v>0.01491731949242335</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02478842263611349</v>
+        <v>0.02495041480397438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -4156,19 +4156,19 @@
         <v>120329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99600</v>
+        <v>99811</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145227</v>
+        <v>145852</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03386463151566194</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02803081950544618</v>
+        <v>0.02809006710150192</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04087180023349682</v>
+        <v>0.04104752815724958</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>173</v>
@@ -4177,19 +4177,19 @@
         <v>186867</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>157989</v>
+        <v>160848</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>214658</v>
+        <v>217875</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02680698452355277</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0226643667726056</v>
+        <v>0.02307441891469001</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03079380035883008</v>
+        <v>0.03125526277695007</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>129051</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>105486</v>
+        <v>107629</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151784</v>
+        <v>153502</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03776098676187013</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03086556241780946</v>
+        <v>0.0314926001411213</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0444126592236147</v>
+        <v>0.04491530327553302</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>173</v>
@@ -4227,19 +4227,19 @@
         <v>187457</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>161336</v>
+        <v>159054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>215421</v>
+        <v>218442</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05275663732892918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04540532140681705</v>
+        <v>0.04476317500361785</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06062667775454312</v>
+        <v>0.06147698134405948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>291</v>
@@ -4248,19 +4248,19 @@
         <v>316508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281219</v>
+        <v>281402</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>356091</v>
+        <v>353042</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0454047225896695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04034228946027098</v>
+        <v>0.04036854521660927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05108303774496255</v>
+        <v>0.05064560964246068</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>3188740</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3159182</v>
+        <v>3154556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3220817</v>
+        <v>3218404</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9330394903997733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9243907339399736</v>
+        <v>0.9230372140156616</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9424253083593152</v>
+        <v>0.9417192982317646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2949</v>
@@ -4298,19 +4298,19 @@
         <v>3179338</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3139096</v>
+        <v>3137719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3213503</v>
+        <v>3217070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.894772059017389</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8834466901264891</v>
+        <v>0.8830590356415641</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9043873055037301</v>
+        <v>0.9053910886044911</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5939</v>
@@ -4319,19 +4319,19 @@
         <v>6368079</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6317732</v>
+        <v>6317825</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6412440</v>
+        <v>6413523</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9135334252919391</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9063109728700685</v>
+        <v>0.9063242553220927</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9198972438188634</v>
+        <v>0.920052646292579</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>5807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13209</v>
+        <v>14468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007706253237259896</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002639931937530548</v>
+        <v>0.002665684020487411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01753095431228739</v>
+        <v>0.01920149937734989</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4683,19 +4683,19 @@
         <v>8029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3234</v>
+        <v>3128</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15854</v>
+        <v>15934</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008072447811945271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003251363891955106</v>
+        <v>0.00314484885959243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01593864718619436</v>
+        <v>0.0160190530057028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -4704,19 +4704,19 @@
         <v>13836</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7404</v>
+        <v>7507</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23772</v>
+        <v>23703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007914611324064668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004235118946446115</v>
+        <v>0.004294195946582081</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01359866869580053</v>
+        <v>0.01355870788771479</v>
       </c>
     </row>
     <row r="5">
@@ -4746,19 +4746,19 @@
         <v>7188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3047</v>
+        <v>3088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13578</v>
+        <v>14411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007226330252437769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003062893787156204</v>
+        <v>0.003104537799873909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0136505948544424</v>
+        <v>0.01448873123182564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4767,19 +4767,19 @@
         <v>7188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3074</v>
+        <v>3060</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14634</v>
+        <v>13461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004111651155157087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001758573278698596</v>
+        <v>0.001750379031171741</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008371268314877452</v>
+        <v>0.007700174465039662</v>
       </c>
     </row>
     <row r="6">
@@ -4796,19 +4796,19 @@
         <v>14784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8278</v>
+        <v>8728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23869</v>
+        <v>24223</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0196209410952149</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01098606846717767</v>
+        <v>0.01158308338091407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0316781558022016</v>
+        <v>0.03214831183139406</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -4817,19 +4817,19 @@
         <v>19358</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12292</v>
+        <v>12047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29984</v>
+        <v>31601</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01946231936773928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01235772940459937</v>
+        <v>0.01211123413601336</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03014506777230437</v>
+        <v>0.03177026839550308</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -4838,19 +4838,19 @@
         <v>34142</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22683</v>
+        <v>24878</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48146</v>
+        <v>48751</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01953068820249828</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01297572898432112</v>
+        <v>0.01423135911987254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02754138100586675</v>
+        <v>0.02788748952502341</v>
       </c>
     </row>
     <row r="7">
@@ -4870,16 +4870,16 @@
         <v>24515</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49049</v>
+        <v>47460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04685696002021308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03253566776957376</v>
+        <v>0.03253579648764665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06509620914063777</v>
+        <v>0.06298764853117285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -4888,19 +4888,19 @@
         <v>33677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22682</v>
+        <v>23826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46399</v>
+        <v>48694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03385826546664575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02280330792458402</v>
+        <v>0.02395368072707575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04664850740311946</v>
+        <v>0.04895590982760446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4909,19 +4909,19 @@
         <v>68983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52929</v>
+        <v>53819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88111</v>
+        <v>88190</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03946093802707494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03027735642083378</v>
+        <v>0.03078640881060846</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05040260071398259</v>
+        <v>0.05044765831650964</v>
       </c>
     </row>
     <row r="8">
@@ -4938,19 +4938,19 @@
         <v>697584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681610</v>
+        <v>681966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>711523</v>
+        <v>710952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9258158456473121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9046157202467292</v>
+        <v>0.9050877481793227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9443163274680086</v>
+        <v>0.9435578857050775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>829</v>
@@ -4959,19 +4959,19 @@
         <v>926407</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>908620</v>
+        <v>907305</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>941781</v>
+        <v>940461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.931380637101232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9134981400499761</v>
+        <v>0.9121762231723106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9468373147109146</v>
+        <v>0.9455097620410978</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1537</v>
@@ -4980,19 +4980,19 @@
         <v>1623991</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1599630</v>
+        <v>1599802</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1644876</v>
+        <v>1645256</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.928982111291205</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.915046742200579</v>
+        <v>0.9151455183779983</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9409293858730482</v>
+        <v>0.9411465597007733</v>
       </c>
     </row>
     <row r="9">
@@ -5084,19 +5084,19 @@
         <v>16056</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8919</v>
+        <v>9143</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28497</v>
+        <v>26837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007747656059889433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004303930475260787</v>
+        <v>0.004412073799132092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01375133970633367</v>
+        <v>0.01295013511362547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5105,19 +5105,19 @@
         <v>21144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13368</v>
+        <v>13468</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32707</v>
+        <v>32728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01065080461991313</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006733710033811387</v>
+        <v>0.006784392830653654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01647542473449541</v>
+        <v>0.01648601211150576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5126,19 +5126,19 @@
         <v>37200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25838</v>
+        <v>25740</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51856</v>
+        <v>51387</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009168054856362929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006367882330149634</v>
+        <v>0.006343771269731261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01278012897572881</v>
+        <v>0.01266465388587671</v>
       </c>
     </row>
     <row r="11">
@@ -5155,19 +5155,19 @@
         <v>15835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9261</v>
+        <v>8562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27511</v>
+        <v>26113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007641293779873655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004468837999671406</v>
+        <v>0.004131777359697405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01327547264341702</v>
+        <v>0.01260076740431725</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -5176,19 +5176,19 @@
         <v>17845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11104</v>
+        <v>10241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28828</v>
+        <v>28784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.008989045714583038</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005593293769242457</v>
+        <v>0.005158500160158737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01452142043837743</v>
+        <v>0.01449934737209911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -5197,19 +5197,19 @@
         <v>33680</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23355</v>
+        <v>23106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48256</v>
+        <v>48364</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008300696902526945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005756091493512088</v>
+        <v>0.005694653418437196</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01189297613611203</v>
+        <v>0.01191965480195366</v>
       </c>
     </row>
     <row r="12">
@@ -5226,19 +5226,19 @@
         <v>45070</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32794</v>
+        <v>32165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60292</v>
+        <v>60509</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02174855886294907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01582473301286471</v>
+        <v>0.01552101963618601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02909388565890605</v>
+        <v>0.02919867568084729</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -5247,19 +5247,19 @@
         <v>51798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38599</v>
+        <v>39279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68150</v>
+        <v>68016</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02609230151186229</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01944358802122909</v>
+        <v>0.01978601827291692</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03432930767200233</v>
+        <v>0.03426185755871527</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -5268,19 +5268,19 @@
         <v>96868</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>76235</v>
+        <v>77687</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116568</v>
+        <v>117394</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02387378487296647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01878862817017982</v>
+        <v>0.01914641172780702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02872888900394982</v>
+        <v>0.02893246131407486</v>
       </c>
     </row>
     <row r="13">
@@ -5297,19 +5297,19 @@
         <v>120965</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100187</v>
+        <v>102303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143293</v>
+        <v>145934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0583716326499471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04834513308113703</v>
+        <v>0.04936619258139265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06914557934332373</v>
+        <v>0.07042043432405655</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -5318,19 +5318,19 @@
         <v>77028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60506</v>
+        <v>61010</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94226</v>
+        <v>95532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03880160338323395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0304787965240747</v>
+        <v>0.03073265740246031</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04746473163216255</v>
+        <v>0.0481224757685843</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -5339,19 +5339,19 @@
         <v>197994</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>170875</v>
+        <v>171986</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225565</v>
+        <v>227064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04879677092906998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04211317181535385</v>
+        <v>0.04238688229515553</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05559193250067943</v>
+        <v>0.05596140657109631</v>
       </c>
     </row>
     <row r="14">
@@ -5368,19 +5368,19 @@
         <v>1874404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1844715</v>
+        <v>1843665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1900690</v>
+        <v>1901599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9044908586473407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8901643979978424</v>
+        <v>0.8896575402995235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9171749079543416</v>
+        <v>0.9176133580212791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1744</v>
@@ -5389,19 +5389,19 @@
         <v>1817373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1791817</v>
+        <v>1792778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1839969</v>
+        <v>1840752</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9154662447704076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9025931801677946</v>
+        <v>0.9030770442081977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9268487768226583</v>
+        <v>0.9272431421084081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3511</v>
@@ -5410,19 +5410,19 @@
         <v>3691777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3651729</v>
+        <v>3655780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3727418</v>
+        <v>3728191</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9098606924390736</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8999906358531611</v>
+        <v>0.9009889689678732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9186446579022244</v>
+        <v>0.9188351677921053</v>
       </c>
     </row>
     <row r="15">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7835</v>
+        <v>6496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002384910849813337</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01435725781607542</v>
+        <v>0.01190344051478414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5535,19 +5535,19 @@
         <v>4029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1015</v>
+        <v>1161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9898</v>
+        <v>10667</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00733703418905068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001848880441880751</v>
+        <v>0.002113746935339235</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01802431155842757</v>
+        <v>0.01942561473374805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5556,19 +5556,19 @@
         <v>5331</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1916</v>
+        <v>1767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12260</v>
+        <v>11932</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004868712334386399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001749808335714183</v>
+        <v>0.001613969103076474</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01119776963440234</v>
+        <v>0.0108985664568306</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>5960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1955</v>
+        <v>2011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12169</v>
+        <v>11720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01092207194891485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003582270336602759</v>
+        <v>0.003684281719989683</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02229885874031945</v>
+        <v>0.02147649170676504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5606,19 +5606,19 @@
         <v>3733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11056</v>
+        <v>10511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006798312100278588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001678465614015327</v>
+        <v>0.001695171762992449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02013309006184977</v>
+        <v>0.01914062077380834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -5627,19 +5627,19 @@
         <v>9694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4765</v>
+        <v>4054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18034</v>
+        <v>18223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008853746882592302</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004352442348938047</v>
+        <v>0.003702681577920434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01647189226948261</v>
+        <v>0.01664439513561095</v>
       </c>
     </row>
     <row r="18">
@@ -5656,19 +5656,19 @@
         <v>8907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4023</v>
+        <v>4335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18864</v>
+        <v>18689</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01632239129771943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007372688942152609</v>
+        <v>0.007943857099332822</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03456737888124552</v>
+        <v>0.03424719146764086</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -5677,19 +5677,19 @@
         <v>9188</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4406</v>
+        <v>4664</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16725</v>
+        <v>16904</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01673077493552479</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008022735866573729</v>
+        <v>0.008492532489118283</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03045629715608513</v>
+        <v>0.03078346614012291</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -5698,19 +5698,19 @@
         <v>18095</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10316</v>
+        <v>11482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28411</v>
+        <v>28248</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01652722139106935</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009421833967980619</v>
+        <v>0.01048762590697166</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02594962280583758</v>
+        <v>0.02580100950783777</v>
       </c>
     </row>
     <row r="19">
@@ -5727,19 +5727,19 @@
         <v>18838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11286</v>
+        <v>10486</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30004</v>
+        <v>29544</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03452002453182074</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02068123118893044</v>
+        <v>0.01921468718983119</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05498155179019241</v>
+        <v>0.05413810411097812</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5748,19 +5748,19 @@
         <v>30607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20451</v>
+        <v>20527</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44305</v>
+        <v>45464</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05573542942815055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03724191371781234</v>
+        <v>0.03738048731036515</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08068122388678663</v>
+        <v>0.08279182137905469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -5769,19 +5769,19 @@
         <v>49445</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36688</v>
+        <v>35680</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66519</v>
+        <v>64927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04516088514201667</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03350902151027804</v>
+        <v>0.0325890592129935</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06075617044885731</v>
+        <v>0.05930174339628434</v>
       </c>
     </row>
     <row r="20">
@@ -5798,19 +5798,19 @@
         <v>510711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>496590</v>
+        <v>497529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>521496</v>
+        <v>521782</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9358506013717316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9099752132070255</v>
+        <v>0.9116963102074991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9556146384887071</v>
+        <v>0.9561381179365849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>484</v>
@@ -5819,19 +5819,19 @@
         <v>501584</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>485583</v>
+        <v>485285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>514465</v>
+        <v>514138</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9133984493469954</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8842605827822873</v>
+        <v>0.8837180621033734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.936856492738726</v>
+        <v>0.9362608924678731</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>953</v>
@@ -5840,19 +5840,19 @@
         <v>1012294</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>993841</v>
+        <v>993929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1030482</v>
+        <v>1030059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9245894342499352</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9077352531785086</v>
+        <v>0.9078152941442398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.941201490496861</v>
+        <v>0.940815431597067</v>
       </c>
     </row>
     <row r="21">
@@ -5944,19 +5944,19 @@
         <v>23164</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15247</v>
+        <v>15133</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37089</v>
+        <v>34479</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00687038561676549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004522361075253714</v>
+        <v>0.004488430881604904</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01100058771369052</v>
+        <v>0.01022663148779483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -5965,19 +5965,19 @@
         <v>33202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23020</v>
+        <v>22166</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46981</v>
+        <v>45833</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009408433216868588</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006523219595705721</v>
+        <v>0.006280984822957855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01331276638660578</v>
+        <v>0.01298760145188677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -5986,19 +5986,19 @@
         <v>56366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42202</v>
+        <v>41788</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74914</v>
+        <v>73765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008168366566268509</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006115826642428436</v>
+        <v>0.00605580957362107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01085629083974458</v>
+        <v>0.01068976284159057</v>
       </c>
     </row>
     <row r="23">
@@ -6015,19 +6015,19 @@
         <v>21796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13434</v>
+        <v>13964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33271</v>
+        <v>34316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006464622051967489</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003984463719940588</v>
+        <v>0.004141883743324863</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009868214581948176</v>
+        <v>0.01017808097983648</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -6036,19 +6036,19 @@
         <v>28766</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19831</v>
+        <v>18647</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>42246</v>
+        <v>42064</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008151320277433295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005619374346302016</v>
+        <v>0.005284026146443186</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01197110491117334</v>
+        <v>0.01191948271519424</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>47</v>
@@ -6057,19 +6057,19 @@
         <v>50562</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37192</v>
+        <v>36976</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65065</v>
+        <v>65890</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007327215079823323</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005389693214146724</v>
+        <v>0.005358440940816822</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009429039715847081</v>
+        <v>0.009548576279476789</v>
       </c>
     </row>
     <row r="24">
@@ -6086,19 +6086,19 @@
         <v>68762</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53395</v>
+        <v>53753</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>86431</v>
+        <v>86853</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02039478885844947</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01583717582537243</v>
+        <v>0.01594320474267781</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02563563212556444</v>
+        <v>0.02576061244070251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -6107,19 +6107,19 @@
         <v>80344</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64840</v>
+        <v>62172</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99834</v>
+        <v>100196</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02276688048897469</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01837364081948564</v>
+        <v>0.01761748105306218</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02828972598541606</v>
+        <v>0.02839220641594176</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>139</v>
@@ -6128,19 +6128,19 @@
         <v>149106</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>125430</v>
+        <v>126379</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>177989</v>
+        <v>178579</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02160789839460325</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01817694923772706</v>
+        <v>0.01831446099009098</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02579361980529914</v>
+        <v>0.02587905289395617</v>
       </c>
     </row>
     <row r="25">
@@ -6157,19 +6157,19 @@
         <v>175109</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150758</v>
+        <v>150386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203634</v>
+        <v>206877</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05193765924731394</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04471506573498735</v>
+        <v>0.0446047199726197</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06039805924960086</v>
+        <v>0.06135989305952936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -6178,19 +6178,19 @@
         <v>141312</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>120651</v>
+        <v>119951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>167364</v>
+        <v>166912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04004334918613796</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03418859597231461</v>
+        <v>0.03399017374894854</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04742547881245145</v>
+        <v>0.04729732690473083</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>294</v>
@@ -6199,19 +6199,19 @@
         <v>316422</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>282504</v>
+        <v>280042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>356248</v>
+        <v>352154</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04585479938831784</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04093947688619983</v>
+        <v>0.04058274830995721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0516263150365793</v>
+        <v>0.05103299388593222</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>3082699</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3048595</v>
+        <v>3043972</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3114163</v>
+        <v>3112507</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9143325442255036</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9042174372885833</v>
+        <v>0.9028461576858036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9236649491780421</v>
+        <v>0.9231738580826019</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3057</v>
@@ -6249,19 +6249,19 @@
         <v>3245363</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3206685</v>
+        <v>3212019</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3276024</v>
+        <v>3278575</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9196300168305854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9086698693476551</v>
+        <v>0.9101814344890921</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9283181291439426</v>
+        <v>0.9290410837445491</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6001</v>
@@ -6270,19 +6270,19 @@
         <v>6328062</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6278065</v>
+        <v>6280305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6371935</v>
+        <v>6373105</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9170417205709871</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9097963391762554</v>
+        <v>0.9101208665361791</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9233997216346619</v>
+        <v>0.9235691521914593</v>
       </c>
     </row>
     <row r="27">
@@ -6613,19 +6613,19 @@
         <v>6860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3493</v>
+        <v>3611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12912</v>
+        <v>11681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01185684864340959</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006038334581079275</v>
+        <v>0.006240926779585832</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02231795742641329</v>
+        <v>0.02019118374929169</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -6634,19 +6634,19 @@
         <v>11725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6948</v>
+        <v>7218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19041</v>
+        <v>19723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01426365025403405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008452056377578437</v>
+        <v>0.008780949328154739</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02316342185389747</v>
+        <v>0.02399298803628997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -6655,19 +6655,19 @@
         <v>18585</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12402</v>
+        <v>12419</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26791</v>
+        <v>27065</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0132694777164967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008855125818771199</v>
+        <v>0.008866799116284293</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01912901417447846</v>
+        <v>0.01932404019665395</v>
       </c>
     </row>
     <row r="5">
@@ -6684,19 +6684,19 @@
         <v>11234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6206</v>
+        <v>6278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18790</v>
+        <v>18120</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01941786824297437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01072651816942433</v>
+        <v>0.0108510714668487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03247848500782767</v>
+        <v>0.03132045140328988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -6705,19 +6705,19 @@
         <v>12087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7418</v>
+        <v>7513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19630</v>
+        <v>19098</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01470426811183033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009023919864356137</v>
+        <v>0.009139318736047647</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02387980160480496</v>
+        <v>0.02323285193195893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -6726,19 +6726,19 @@
         <v>23321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16491</v>
+        <v>16676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32645</v>
+        <v>32990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01665130511838278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01177460582807844</v>
+        <v>0.0119067062825963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02330866228701534</v>
+        <v>0.0235547155218515</v>
       </c>
     </row>
     <row r="6">
@@ -6755,19 +6755,19 @@
         <v>14149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9087</v>
+        <v>8257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23200</v>
+        <v>22303</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02445688522644263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0157065785888364</v>
+        <v>0.01427177742837522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04010236998740073</v>
+        <v>0.03855117181164305</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -6776,19 +6776,19 @@
         <v>31353</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24387</v>
+        <v>23120</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41602</v>
+        <v>41840</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03814060867337447</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02966674302618696</v>
+        <v>0.02812537693565779</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05060842381436262</v>
+        <v>0.05089824070572458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -6797,19 +6797,19 @@
         <v>45502</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35606</v>
+        <v>35113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61010</v>
+        <v>59178</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03248830147774071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02542231284690411</v>
+        <v>0.02507042171360226</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04356072491045893</v>
+        <v>0.04225264219370971</v>
       </c>
     </row>
     <row r="7">
@@ -6826,19 +6826,19 @@
         <v>37783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27663</v>
+        <v>28084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51000</v>
+        <v>52225</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06530902640555374</v>
+        <v>0.06530902640555375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04781617566015142</v>
+        <v>0.0485431539290096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08815424020798719</v>
+        <v>0.09027137403830526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>141</v>
@@ -6847,19 +6847,19 @@
         <v>78219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66048</v>
+        <v>66779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91464</v>
+        <v>92244</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09515304933338277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08034692960643773</v>
+        <v>0.0812361170630877</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1112647004184998</v>
+        <v>0.112213546386584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -6868,19 +6868,19 @@
         <v>116003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99381</v>
+        <v>100495</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134114</v>
+        <v>136602</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08282544082859015</v>
+        <v>0.08282544082859014</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07095770373780318</v>
+        <v>0.07175276406456874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0957569332941931</v>
+        <v>0.09753369964055855</v>
       </c>
     </row>
     <row r="8">
@@ -6897,19 +6897,19 @@
         <v>508503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>492595</v>
+        <v>491272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521342</v>
+        <v>522902</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8789593714816198</v>
+        <v>0.8789593714816197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8514605940846882</v>
+        <v>0.8491747463229333</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9011506274058056</v>
+        <v>0.903847388679344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1196</v>
@@ -6918,19 +6918,19 @@
         <v>688653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>670807</v>
+        <v>670747</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>705084</v>
+        <v>705117</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8377384236273785</v>
+        <v>0.8377384236273782</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8160292310501612</v>
+        <v>0.815956204246405</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8577262928814782</v>
+        <v>0.8577673218561779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1800</v>
@@ -6939,19 +6939,19 @@
         <v>1197156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1172276</v>
+        <v>1172301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1218776</v>
+        <v>1216632</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8547654748587897</v>
+        <v>0.8547654748587895</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8370008626525408</v>
+        <v>0.8370191402070923</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8702019417341026</v>
+        <v>0.8686711589726201</v>
       </c>
     </row>
     <row r="9">
@@ -7043,19 +7043,19 @@
         <v>22867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12995</v>
+        <v>13587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40257</v>
+        <v>40104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01025150458952086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005825860795712159</v>
+        <v>0.006091110458002921</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01804803620838491</v>
+        <v>0.01797911270763725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -7064,19 +7064,19 @@
         <v>24014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16556</v>
+        <v>17028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32978</v>
+        <v>34854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01106740024725478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00763044383369963</v>
+        <v>0.007847870050806017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01519919011158711</v>
+        <v>0.01606364501145612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -7085,19 +7085,19 @@
         <v>46880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34442</v>
+        <v>35004</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64365</v>
+        <v>64943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01065381451585526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007827243608395089</v>
+        <v>0.007954931796191113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01462738631110517</v>
+        <v>0.01475859511610336</v>
       </c>
     </row>
     <row r="11">
@@ -7114,19 +7114,19 @@
         <v>6493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2683</v>
+        <v>2546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14168</v>
+        <v>13401</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.002911056526609546</v>
+        <v>0.002911056526609547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00120272813154119</v>
+        <v>0.001141446230843826</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.006351625245601548</v>
+        <v>0.006008043453489365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -7135,19 +7135,19 @@
         <v>24165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15211</v>
+        <v>16068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36873</v>
+        <v>39686</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01113719950858951</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007010537677862173</v>
+        <v>0.007405630355630393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0169940677110694</v>
+        <v>0.01829071937807095</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -7156,19 +7156,19 @@
         <v>30658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19992</v>
+        <v>20797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47127</v>
+        <v>46535</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.006967284728985737</v>
+        <v>0.006967284728985736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004543268790498567</v>
+        <v>0.004726282448106247</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01070994002200101</v>
+        <v>0.01057541430245907</v>
       </c>
     </row>
     <row r="12">
@@ -7185,19 +7185,19 @@
         <v>92880</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>74975</v>
+        <v>73425</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116371</v>
+        <v>117276</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04163976469055056</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03361255724013405</v>
+        <v>0.03291785132295495</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05217087854111142</v>
+        <v>0.05257689630436934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>123</v>
@@ -7206,19 +7206,19 @@
         <v>95885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79692</v>
+        <v>79227</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116035</v>
+        <v>115149</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04419179031569181</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03672868593176252</v>
+        <v>0.03651409668669586</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05347847862427524</v>
+        <v>0.05307029777357048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>205</v>
@@ -7227,19 +7227,19 @@
         <v>188766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163158</v>
+        <v>163430</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>219640</v>
+        <v>218055</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04289814280731327</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03707875816037342</v>
+        <v>0.03714058836057898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0499145983252078</v>
+        <v>0.04955433668680972</v>
       </c>
     </row>
     <row r="13">
@@ -7256,19 +7256,19 @@
         <v>259664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>230776</v>
+        <v>227094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>297405</v>
+        <v>295241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1164116739633364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1034607238822816</v>
+        <v>0.1018100523884958</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1333314739033704</v>
+        <v>0.1323615462331018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>380</v>
@@ -7277,19 +7277,19 @@
         <v>267112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>240489</v>
+        <v>240173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>298609</v>
+        <v>296151</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1231071534879997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1108371264689912</v>
+        <v>0.110691421224221</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1376234607146851</v>
+        <v>0.1364908218211539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>624</v>
@@ -7298,19 +7298,19 @@
         <v>526776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>485467</v>
+        <v>487163</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570158</v>
+        <v>571608</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1197131474407443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1103253994409155</v>
+        <v>0.110710901587136</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1295719908928907</v>
+        <v>0.1299014127901224</v>
       </c>
     </row>
     <row r="14">
@@ -7327,19 +7327,19 @@
         <v>1848662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1809344</v>
+        <v>1809079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1886567</v>
+        <v>1890009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8287860002299827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8111589885939702</v>
+        <v>0.8110401985956903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8457795590784396</v>
+        <v>0.8473228267906762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2357</v>
@@ -7348,19 +7348,19 @@
         <v>1758577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1721532</v>
+        <v>1725974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1787922</v>
+        <v>1793632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8104964564404642</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7934232091526897</v>
+        <v>0.795470414206299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8240210123336578</v>
+        <v>0.8266525803321167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4001</v>
@@ -7369,19 +7369,19 @@
         <v>3607240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3553552</v>
+        <v>3555579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3658481</v>
+        <v>3655580</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8197676105071016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8075668156954614</v>
+        <v>0.8080274400825587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8314123975964319</v>
+        <v>0.830753143412309</v>
       </c>
     </row>
     <row r="15">
@@ -7473,19 +7473,19 @@
         <v>12061</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5779</v>
+        <v>6018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22076</v>
+        <v>23721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01694952017387627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008121854881076661</v>
+        <v>0.008456819262255302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0310232668859131</v>
+        <v>0.03333508255203754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -7494,19 +7494,19 @@
         <v>13348</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7471</v>
+        <v>7776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21840</v>
+        <v>22515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01816384538237904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01016700670511029</v>
+        <v>0.01058110311367124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02971861818462276</v>
+        <v>0.03063738141453291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -7515,19 +7515,19 @@
         <v>25409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16821</v>
+        <v>16389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38094</v>
+        <v>38635</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01756645900876525</v>
+        <v>0.01756645900876524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01162900034339789</v>
+        <v>0.01133058638019353</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0263358557649793</v>
+        <v>0.02670984278131793</v>
       </c>
     </row>
     <row r="17">
@@ -7544,19 +7544,19 @@
         <v>6948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2517</v>
+        <v>2485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13665</v>
+        <v>14987</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.00976366907650297</v>
+        <v>0.009763669076502968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003537390194943528</v>
+        <v>0.003492760998971479</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0192033412740897</v>
+        <v>0.02106115985067545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -7565,19 +7565,19 @@
         <v>12887</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7859</v>
+        <v>8107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21062</v>
+        <v>21932</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01753594724780058</v>
+        <v>0.01753594724780059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01069413844415077</v>
+        <v>0.01103188044247095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02866018293320941</v>
+        <v>0.02984392616656613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -7586,19 +7586,19 @@
         <v>19834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12510</v>
+        <v>12276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30048</v>
+        <v>29829</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01371238084321779</v>
+        <v>0.01371238084321778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008648687086626621</v>
+        <v>0.008486694926162622</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02077321042980982</v>
+        <v>0.02062199012543522</v>
       </c>
     </row>
     <row r="18">
@@ -7615,19 +7615,19 @@
         <v>34592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24010</v>
+        <v>23797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49079</v>
+        <v>49514</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04861217201115707</v>
+        <v>0.04861217201115706</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03374126637553364</v>
+        <v>0.03344264948216469</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06897085629019541</v>
+        <v>0.06958251213250305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -7636,19 +7636,19 @@
         <v>41636</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32957</v>
+        <v>32732</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54746</v>
+        <v>54346</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05665767205735697</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04484670257665808</v>
+        <v>0.0445404433934583</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07449620967634261</v>
+        <v>0.07395210501309565</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>93</v>
@@ -7657,19 +7657,19 @@
         <v>76228</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61829</v>
+        <v>62831</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92986</v>
+        <v>94844</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05269969435677458</v>
+        <v>0.05269969435677457</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0427446427263941</v>
+        <v>0.04343740718212179</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06428512108567212</v>
+        <v>0.0655693652675497</v>
       </c>
     </row>
     <row r="19">
@@ -7686,19 +7686,19 @@
         <v>100202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79901</v>
+        <v>80997</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121621</v>
+        <v>121220</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1408150451568549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1122862337276452</v>
+        <v>0.1138257375705051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1709146537369369</v>
+        <v>0.170351573757881</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>128</v>
@@ -7707,19 +7707,19 @@
         <v>90400</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76186</v>
+        <v>75095</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107619</v>
+        <v>105894</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1230138581058044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1036713105798655</v>
+        <v>0.1021878337609534</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1464447644055431</v>
+        <v>0.1440972886037347</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>218</v>
@@ -7728,19 +7728,19 @@
         <v>190602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166975</v>
+        <v>163679</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>219938</v>
+        <v>218240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1317711386958695</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1154366800478276</v>
+        <v>0.1131582234140327</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1520525179179186</v>
+        <v>0.1508786226839273</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>557784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>530359</v>
+        <v>530941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>578756</v>
+        <v>579173</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7838595935816087</v>
+        <v>0.7838595935816086</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7453186894917884</v>
+        <v>0.7461364987694959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8133309775555767</v>
+        <v>0.8139176581177499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>782</v>
@@ -7778,19 +7778,19 @@
         <v>576606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>555940</v>
+        <v>555361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>594158</v>
+        <v>595104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7846286772066589</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7565078108395059</v>
+        <v>0.7557194930104243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.808513182426438</v>
+        <v>0.8098013420047074</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1324</v>
@@ -7799,19 +7799,19 @@
         <v>1134390</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1104131</v>
+        <v>1102432</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1165380</v>
+        <v>1168507</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7842503270953729</v>
+        <v>0.7842503270953728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7633309210445459</v>
+        <v>0.7621568088280226</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8056747430494945</v>
+        <v>0.8078366457933301</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>41787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28463</v>
+        <v>28787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60268</v>
+        <v>60782</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01186907714130886</v>
+        <v>0.01186907714130887</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008084578366225463</v>
+        <v>0.008176568058453437</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01711818711554951</v>
+        <v>0.01726438194384476</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -7924,19 +7924,19 @@
         <v>49087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38053</v>
+        <v>37741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61797</v>
+        <v>64015</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01317181472455654</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.010210949761143</v>
+        <v>0.01012732614954612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01658240644148325</v>
+        <v>0.0171774663433518</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -7945,19 +7945,19 @@
         <v>90874</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73617</v>
+        <v>73946</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112839</v>
+        <v>112340</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01253895926114494</v>
+        <v>0.01253895926114493</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01015772010047651</v>
+        <v>0.01020312633328716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01556962922736351</v>
+        <v>0.01550089952541525</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>24675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16287</v>
+        <v>16678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36141</v>
+        <v>35756</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.007008530589212536</v>
+        <v>0.007008530589212538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004626192108361472</v>
+        <v>0.004737056203313367</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01026527216528878</v>
+        <v>0.01015601955683643</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>63</v>
@@ -7995,19 +7995,19 @@
         <v>49139</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>37981</v>
+        <v>37574</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>66008</v>
+        <v>65460</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01318582822163798</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0101917319601151</v>
+        <v>0.01008251527020667</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01771238112829378</v>
+        <v>0.01756528359088026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>90</v>
@@ -8016,19 +8016,19 @@
         <v>73814</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>59855</v>
+        <v>59499</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>92871</v>
+        <v>92866</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01018496557203653</v>
+        <v>0.01018496557203652</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00825883209767099</v>
+        <v>0.008209712553834406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01281444017744433</v>
+        <v>0.01281375682984289</v>
       </c>
     </row>
     <row r="24">
@@ -8045,19 +8045,19 @@
         <v>141621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119192</v>
+        <v>117582</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168544</v>
+        <v>172545</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04022545763313574</v>
+        <v>0.04022545763313575</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03385468008711814</v>
+        <v>0.03339756733483076</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04787249740731576</v>
+        <v>0.04900909166637566</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>234</v>
@@ -8066,19 +8066,19 @@
         <v>168875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>147938</v>
+        <v>148157</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193403</v>
+        <v>193512</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04531520472161856</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03969700241397273</v>
+        <v>0.03975588526121706</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05189706654174728</v>
+        <v>0.0519263843270471</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>367</v>
@@ -8087,19 +8087,19 @@
         <v>310496</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>277483</v>
+        <v>283162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>347875</v>
+        <v>343315</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04284266205934299</v>
+        <v>0.04284266205934298</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03828746517707705</v>
+        <v>0.03907105897640807</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0480003150096706</v>
+        <v>0.04737115973985051</v>
       </c>
     </row>
     <row r="25">
@@ -8116,19 +8116,19 @@
         <v>397649</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>360812</v>
+        <v>357320</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>438961</v>
+        <v>438470</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1129466466245105</v>
+        <v>0.1129466466245106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1024834314384659</v>
+        <v>0.1014915526256949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1246805430532836</v>
+        <v>0.1245410948906668</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>649</v>
@@ -8137,19 +8137,19 @@
         <v>435732</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>398951</v>
+        <v>406022</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>468548</v>
+        <v>473199</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1169225697298127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1070531357227348</v>
+        <v>0.1089504917320382</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1257283746869104</v>
+        <v>0.1269764046585746</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1027</v>
@@ -8158,19 +8158,19 @@
         <v>833381</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>780130</v>
+        <v>781039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>885035</v>
+        <v>887123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1149911104001278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1076435233717133</v>
+        <v>0.107768951465594</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1221184777322498</v>
+        <v>0.1224064675845738</v>
       </c>
     </row>
     <row r="26">
@@ -8187,19 +8187,19 @@
         <v>2914951</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2863095</v>
+        <v>2862138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2960463</v>
+        <v>2962500</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8279502880118322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8132213371356387</v>
+        <v>0.8129495940287947</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8408774664909652</v>
+        <v>0.8414559519211962</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4335</v>
@@ -8208,19 +8208,19 @@
         <v>3023835</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2983386</v>
+        <v>2979150</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3068171</v>
+        <v>3062549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8114045826023741</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8005504837070762</v>
+        <v>0.7994137845306444</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8233013439687047</v>
+        <v>0.8217928563363074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7125</v>
@@ -8229,19 +8229,19 @@
         <v>5938786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5873913</v>
+        <v>5878673</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6004777</v>
+        <v>6004233</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8194423027073479</v>
+        <v>0.8194423027073477</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8104910878174807</v>
+        <v>0.8111478740266886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8285478142119369</v>
+        <v>0.8284728024181496</v>
       </c>
     </row>
     <row r="27">
